--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_581.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_581.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d10170507-Reviews-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>74</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Plaza-La-Reina.h17750973.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_581.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_581.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,794 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r587041242-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>10170507</t>
+  </si>
+  <si>
+    <t>587041242</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Westwood Hotel</t>
+  </si>
+  <si>
+    <t>We recently spend a long weekend here as we have family living nearby and were very happy with our stay at this boutique hotel. The property has a beautiful courtyard and rooftop terrace and the rooms are nicely decorated. This property is especially good if you want to stay in for some meals as the kitchenettes are well equipped with a refrigerator, microwave, cooktop, dishwasher and Keurig. Our room also included a 1/2 bath in addition to the full bath and a washer/dryer. There are many restaurants and coffee shops as well as a Whole Foods in walking distance. Out loft style room had great light with lots of windows and good shades as well. Room was very clean and bed was comfortable. Do know that this is not a full service hotel. There is no valet, room service, restaurant etc. on the premises. A staff member told me that they plan to have a restaurant on site in the future and some type of wine service on the rooftop terrace soon. We most definitely will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>lynnette d, Director of Sales at Plaza La Reina, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>We recently spend a long weekend here as we have family living nearby and were very happy with our stay at this boutique hotel. The property has a beautiful courtyard and rooftop terrace and the rooms are nicely decorated. This property is especially good if you want to stay in for some meals as the kitchenettes are well equipped with a refrigerator, microwave, cooktop, dishwasher and Keurig. Our room also included a 1/2 bath in addition to the full bath and a washer/dryer. There are many restaurants and coffee shops as well as a Whole Foods in walking distance. Out loft style room had great light with lots of windows and good shades as well. Room was very clean and bed was comfortable. Do know that this is not a full service hotel. There is no valet, room service, restaurant etc. on the premises. A staff member told me that they plan to have a restaurant on site in the future and some type of wine service on the rooftop terrace soon. We most definitely will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r586229702-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>586229702</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Good hotel but no place for breakfast</t>
+  </si>
+  <si>
+    <t>The room was elegant.  The hotel is very conveniently located in the Westwood neighborhood of Los Angeles.  Parking is available, secure and affordable ($25.00).  Staff is limited but friendly.Hard to know where to go for breakfast, though.  There is a fridge in the room (as well as other appliances) so the best option is probably to eat in the room.  There is a Denny’s across the street but we found it smelly, dirty and generally deplorable.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The room was elegant.  The hotel is very conveniently located in the Westwood neighborhood of Los Angeles.  Parking is available, secure and affordable ($25.00).  Staff is limited but friendly.Hard to know where to go for breakfast, though.  There is a fridge in the room (as well as other appliances) so the best option is probably to eat in the room.  There is a Denny’s across the street but we found it smelly, dirty and generally deplorable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r586074697-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>586074697</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Outstanding - Better Than Advertised</t>
+  </si>
+  <si>
+    <t>Rarely have I stayed anywhere that I booked based on TA reviews that exceeded my expectations in every way. Plaza La Reina is one of these. My review follows, but suffice it to say I would recommend this charming hotel to anyone needing to stay in the Westwood area.Check-in/front desk - loved being able to park below the hotel especially in this busy area.  Beautiful lobby with intimate desk setting for check-in.  Staff could not have been nicer or more accommodating. Room/facilities - we booked a junior suite for myself, wife and daughter.  Huge living room, very nice kitchenette and spacious bedroom.  The room felt brand new.  Exceptionally clean and well maintained. Bathroom was huge, modern and also seemed brand new. Overall the room was much better than what the pictures show. There is a rooftop terrace (BYOB) that is beautifully decorated and has a great view.  Our room overlooked a beautiful interior courtyard.Overall I can't say enough about this hotel.  As my daughter is attending UCLA starting this fall, this will be the only place I stay when we come to visit.  I hesitate to write this review as I don't want others to find this place and make it any harder to get a room!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rarely have I stayed anywhere that I booked based on TA reviews that exceeded my expectations in every way. Plaza La Reina is one of these. My review follows, but suffice it to say I would recommend this charming hotel to anyone needing to stay in the Westwood area.Check-in/front desk - loved being able to park below the hotel especially in this busy area.  Beautiful lobby with intimate desk setting for check-in.  Staff could not have been nicer or more accommodating. Room/facilities - we booked a junior suite for myself, wife and daughter.  Huge living room, very nice kitchenette and spacious bedroom.  The room felt brand new.  Exceptionally clean and well maintained. Bathroom was huge, modern and also seemed brand new. Overall the room was much better than what the pictures show. There is a rooftop terrace (BYOB) that is beautifully decorated and has a great view.  Our room overlooked a beautiful interior courtyard.Overall I can't say enough about this hotel.  As my daughter is attending UCLA starting this fall, this will be the only place I stay when we come to visit.  I hesitate to write this review as I don't want others to find this place and make it any harder to get a room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r583441452-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>583441452</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Should be a five star review...</t>
+  </si>
+  <si>
+    <t>Plaza La Reina in beautiful and we liked our stay there. The concierge Troy is amazing.  The concierge Billy was rude and condescending to us.  I had posted a review detailing the problems we had with him, but tripadvisor told me I had to change it. However it is impossible for me to write a review of this place without saying how awful he was. So this one will be short and sweet.  The place is amazing, spotlessly clean and lovely. Our stay was spoiled by Billy.  I see there is now another review where he managed to spoil another guests stay.... ours was a similar experience.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r583190871-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>583190871</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>3 star hotel not, 4.5</t>
+  </si>
+  <si>
+    <t>Nice and new property, could be great but my experience was very bad as a business traveler. Do not advise a stay here particularly if you are a business person or if you want any normal hotel services. This hotel is a 3 star extended stay - not a 4.5 hotel. Suggest the hotel advertise as such to eliminate frustration.
+Pros:
+-Well located
+-New
+-Troy and Jeff very kind
+Cons:
+-Cleaning mediocre - Room was not cleaned, just bed made. Never received new toiletries, water or coffee &amp; had to ask reception nightly.
+-Be aware entrance is not visible from the street. After you know where you're going, you will find it but first time, you will scratch your head as to where reception is. This would be solved by an awning at the entrance so you can see it street-side.
+-Poor management - We had some issues at checkin including a disagreement. Management never contacted us during our stay to ensure all is ok.
+-Poor interior design and planning - too long of a list. Examples: Desk in room but no plug within 15 feet of desk, no lighting other than bedside in our bedroom, 3 bulbs out in rooms, exterior light was not operating.
+-Loft rooms: Be aware they are damp without light. In full transparency : We were generously offered this room after the one we were given looked out onto a parking lot but in retrospect...Nice and new property, could be great but my experience was very bad as a business traveler. Do not advise a stay here particularly if you are a business person or if you want any normal hotel services. This hotel is a 3 star extended stay - not a 4.5 hotel. Suggest the hotel advertise as such to eliminate frustration.Pros:-Well located-New-Troy and Jeff very kindCons:-Cleaning mediocre - Room was not cleaned, just bed made. Never received new toiletries, water or coffee &amp; had to ask reception nightly.-Be aware entrance is not visible from the street. After you know where you're going, you will find it but first time, you will scratch your head as to where reception is. This would be solved by an awning at the entrance so you can see it street-side.-Poor management - We had some issues at checkin including a disagreement. Management never contacted us during our stay to ensure all is ok.-Poor interior design and planning - too long of a list. Examples: Desk in room but no plug within 15 feet of desk, no lighting other than bedside in our bedroom, 3 bulbs out in rooms, exterior light was not operating.-Loft rooms: Be aware they are damp without light. In full transparency : We were generously offered this room after the one we were given looked out onto a parking lot but in retrospect after several days without light (or coffee), we desperately wanted to leave.-Hotel is not staffed properly - Concierge staff are too nice and go above and beyond but they are the guts of the establishment. Never saw anyone else - they are stretched.-A roof deck without services - Gorgeous roof deck but no water, music, power or life (other than some beautiful trees). Yes, we are discerning, but when you book a room at a high star level, you expect service to be on par. Otherwise, wbee could have booked other places at the same price (some less). I actually think they thought were were crazy and so in turn may they avoided us? - when in fact we could be won over. Very Disappointing.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nice and new property, could be great but my experience was very bad as a business traveler. Do not advise a stay here particularly if you are a business person or if you want any normal hotel services. This hotel is a 3 star extended stay - not a 4.5 hotel. Suggest the hotel advertise as such to eliminate frustration.
+Pros:
+-Well located
+-New
+-Troy and Jeff very kind
+Cons:
+-Cleaning mediocre - Room was not cleaned, just bed made. Never received new toiletries, water or coffee &amp; had to ask reception nightly.
+-Be aware entrance is not visible from the street. After you know where you're going, you will find it but first time, you will scratch your head as to where reception is. This would be solved by an awning at the entrance so you can see it street-side.
+-Poor management - We had some issues at checkin including a disagreement. Management never contacted us during our stay to ensure all is ok.
+-Poor interior design and planning - too long of a list. Examples: Desk in room but no plug within 15 feet of desk, no lighting other than bedside in our bedroom, 3 bulbs out in rooms, exterior light was not operating.
+-Loft rooms: Be aware they are damp without light. In full transparency : We were generously offered this room after the one we were given looked out onto a parking lot but in retrospect...Nice and new property, could be great but my experience was very bad as a business traveler. Do not advise a stay here particularly if you are a business person or if you want any normal hotel services. This hotel is a 3 star extended stay - not a 4.5 hotel. Suggest the hotel advertise as such to eliminate frustration.Pros:-Well located-New-Troy and Jeff very kindCons:-Cleaning mediocre - Room was not cleaned, just bed made. Never received new toiletries, water or coffee &amp; had to ask reception nightly.-Be aware entrance is not visible from the street. After you know where you're going, you will find it but first time, you will scratch your head as to where reception is. This would be solved by an awning at the entrance so you can see it street-side.-Poor management - We had some issues at checkin including a disagreement. Management never contacted us during our stay to ensure all is ok.-Poor interior design and planning - too long of a list. Examples: Desk in room but no plug within 15 feet of desk, no lighting other than bedside in our bedroom, 3 bulbs out in rooms, exterior light was not operating.-Loft rooms: Be aware they are damp without light. In full transparency : We were generously offered this room after the one we were given looked out onto a parking lot but in retrospect after several days without light (or coffee), we desperately wanted to leave.-Hotel is not staffed properly - Concierge staff are too nice and go above and beyond but they are the guts of the establishment. Never saw anyone else - they are stretched.-A roof deck without services - Gorgeous roof deck but no water, music, power or life (other than some beautiful trees). Yes, we are discerning, but when you book a room at a high star level, you expect service to be on par. Otherwise, wbee could have booked other places at the same price (some less). I actually think they thought were were crazy and so in turn may they avoided us? - when in fact we could be won over. Very Disappointing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r582893497-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>582893497</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Dr. Arif Mahmood</t>
+  </si>
+  <si>
+    <t>Excellent boutique hotel with personalized service. Jeff who was at the front was truly exceptional and went above and beyond to cater to us. Strongly recommend this hotel ! Rooms are very unique and brand new. You are in the heart of Westwood but feel like you are in a villa. Very impressed with this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r579274022-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>579274022</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>My favorite hotel in LA.</t>
+  </si>
+  <si>
+    <t>From the moment I discussed my parents vacation and hotel options with the hotel concierge Billy, I knew I had chosen the right place. Billy is knowledgeable of the west side of LA, as he is a native Los Angeleno, and has worked in many of the area hotels; making him an amazing concierge. He offered my family a great hotel option at Plaza la Reina, I can’t stop raving about the it; the hotel, the staff, the cleanliness, the location, and many other things. 
+From the moment we arrived, Billy greeted us with an amazing smile, was extremely respectful and helpful through every single step of our vacation. He was always offering us options of places to visit, always offered water for our walks, and was very attentive and extremely quick with any requests we had, whether an extra towel or a dental kit. We didn’t cook so that wasn’t an issue, my parents wanted a nice suite, and he provided an amazing place for the week. 
+This was my family’s first time in Los Angeles, and thanks to Billy and Plaza la Reina, my parents raved about their vacation and now other family members are coming to visit LA and are coming back to stay at Plaza la Reina in the near future, including my cousins and two of my brothers. Needless to say, whenever my parents come back to LA, Plaza la Reina will be the place...From the moment I discussed my parents vacation and hotel options with the hotel concierge Billy, I knew I had chosen the right place. Billy is knowledgeable of the west side of LA, as he is a native Los Angeleno, and has worked in many of the area hotels; making him an amazing concierge. He offered my family a great hotel option at Plaza la Reina, I can’t stop raving about the it; the hotel, the staff, the cleanliness, the location, and many other things. From the moment we arrived, Billy greeted us with an amazing smile, was extremely respectful and helpful through every single step of our vacation. He was always offering us options of places to visit, always offered water for our walks, and was very attentive and extremely quick with any requests we had, whether an extra towel or a dental kit. We didn’t cook so that wasn’t an issue, my parents wanted a nice suite, and he provided an amazing place for the week. This was my family’s first time in Los Angeles, and thanks to Billy and Plaza la Reina, my parents raved about their vacation and now other family members are coming to visit LA and are coming back to stay at Plaza la Reina in the near future, including my cousins and two of my brothers. Needless to say, whenever my parents come back to LA, Plaza la Reina will be the place they will choose to stay.HIGHLY recommended hotel. Great prices. Great location. Thanks, Billy. Thanks everyone there!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>From the moment I discussed my parents vacation and hotel options with the hotel concierge Billy, I knew I had chosen the right place. Billy is knowledgeable of the west side of LA, as he is a native Los Angeleno, and has worked in many of the area hotels; making him an amazing concierge. He offered my family a great hotel option at Plaza la Reina, I can’t stop raving about the it; the hotel, the staff, the cleanliness, the location, and many other things. 
+From the moment we arrived, Billy greeted us with an amazing smile, was extremely respectful and helpful through every single step of our vacation. He was always offering us options of places to visit, always offered water for our walks, and was very attentive and extremely quick with any requests we had, whether an extra towel or a dental kit. We didn’t cook so that wasn’t an issue, my parents wanted a nice suite, and he provided an amazing place for the week. 
+This was my family’s first time in Los Angeles, and thanks to Billy and Plaza la Reina, my parents raved about their vacation and now other family members are coming to visit LA and are coming back to stay at Plaza la Reina in the near future, including my cousins and two of my brothers. Needless to say, whenever my parents come back to LA, Plaza la Reina will be the place...From the moment I discussed my parents vacation and hotel options with the hotel concierge Billy, I knew I had chosen the right place. Billy is knowledgeable of the west side of LA, as he is a native Los Angeleno, and has worked in many of the area hotels; making him an amazing concierge. He offered my family a great hotel option at Plaza la Reina, I can’t stop raving about the it; the hotel, the staff, the cleanliness, the location, and many other things. From the moment we arrived, Billy greeted us with an amazing smile, was extremely respectful and helpful through every single step of our vacation. He was always offering us options of places to visit, always offered water for our walks, and was very attentive and extremely quick with any requests we had, whether an extra towel or a dental kit. We didn’t cook so that wasn’t an issue, my parents wanted a nice suite, and he provided an amazing place for the week. This was my family’s first time in Los Angeles, and thanks to Billy and Plaza la Reina, my parents raved about their vacation and now other family members are coming to visit LA and are coming back to stay at Plaza la Reina in the near future, including my cousins and two of my brothers. Needless to say, whenever my parents come back to LA, Plaza la Reina will be the place they will choose to stay.HIGHLY recommended hotel. Great prices. Great location. Thanks, Billy. Thanks everyone there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r579273604-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>579273604</t>
+  </si>
+  <si>
+    <t>A perfect Birthday</t>
+  </si>
+  <si>
+    <t>So I stayed here for 2 nights celebrating my birthday. From the moment I arrived 5 star service from Billy whom we checked in with. He was very knowledgeable about the area and recommended some really great places to eat. I felt like a guest in his home which made the experience very personal unlike staying at a corporate owned hotel.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r576976878-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>576976878</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>As good as you hope</t>
+  </si>
+  <si>
+    <t>Having stayed in two other Westwood hotels - and been disappointed - I was happy to investigate a new option near UCLA. Lucky me! Plaza la Reina is a delightful gem. I would not have changed a thing - hospitable service, excellent location, lovely rooms with all the amenities you want (kitchenette! coffee! fancy toiletries! luxurious bed sheets! great lighting!). A+.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r571773260-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>571773260</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>Secret Gem In Westwood</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised by this beautiful Italian highbred Airbnb. The staff was very friendly and extremely helpful, especially Troy at the front desk. The rooms were  delightfully exquisite. Old world charm in a brand new building. Within walking distance of UCLA and Westwood Village. Amenities that were included free of charge Wi-Fi, and parking, full kitchen, washer and dryer in the room, dishwasher!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r571537487-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>571537487</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>A clean, well-lighted place</t>
+  </si>
+  <si>
+    <t>The room (Junior Suite Deluxe--some marketing gibberish deluxe) was spacious and included a kitchenette, washer and dryer. The building itself is small and the room arrangement, refreshingly non-standard. Staff responsiveness was impeccable, as was the daily cleaning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r570909427-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>570909427</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Excellent Rooms and Outstanding Service</t>
+  </si>
+  <si>
+    <t>My wife and I are in the interesting position of having to stay in Los Angeles 2 nights a week for work - since our home is beyond a reasonable commuting distance. Plaza La Reina has become our home away from home. Excellent large, well appointment rooms, outstanding customer service - an overall wonderful experience. Only one minor improvement suggestion - having an onsite workout room. Going to LA Fitness around the corner is an option - but obviously does not match the upscale experience and ambience of the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r566798889-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>566798889</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>This is the only place I would stay from now on!</t>
+  </si>
+  <si>
+    <t>It was pure luck that brought me to the Plaza la Reina! I had the worst experience at the Kimpton Palomar and had to find a place for the next 1-2 weeks while making daily visits to the hospital. I absolutely love the Plaza and am so glad we found it. We booked a beautiful suite on the 3rd floor with lots of light and fresh air. The general manager and the evening concierge noticed that my little girl was sick when we arrived, so they tag-teamed our check-in to make it super quick and take us to our room so my little one could rest. Amazing service and very considerate in anticipating our needs. Meanwhile, they showed my husband how to get to the secured parking, and were already waiting with a luggage cart before he turned the corner to park. The trunk of our Suburban was packed but Troy (the evening Concierge) made sure to come help us himself and loaded all of our luggage in a flash to get us settled upstairs as quickly as possible. He checked to see if we needed anything delivered (dinner, baby supplies, OTC baby cough medicine, crib) and then called our room a few hours later to make sure we had everything we might need. The furnishings were gorgeous and comfortable. The suite was spacious, bright, had plenty of storage, and there was a complete laundry unit in the room. I...It was pure luck that brought me to the Plaza la Reina! I had the worst experience at the Kimpton Palomar and had to find a place for the next 1-2 weeks while making daily visits to the hospital. I absolutely love the Plaza and am so glad we found it. We booked a beautiful suite on the 3rd floor with lots of light and fresh air. The general manager and the evening concierge noticed that my little girl was sick when we arrived, so they tag-teamed our check-in to make it super quick and take us to our room so my little one could rest. Amazing service and very considerate in anticipating our needs. Meanwhile, they showed my husband how to get to the secured parking, and were already waiting with a luggage cart before he turned the corner to park. The trunk of our Suburban was packed but Troy (the evening Concierge) made sure to come help us himself and loaded all of our luggage in a flash to get us settled upstairs as quickly as possible. He checked to see if we needed anything delivered (dinner, baby supplies, OTC baby cough medicine, crib) and then called our room a few hours later to make sure we had everything we might need. The furnishings were gorgeous and comfortable. The suite was spacious, bright, had plenty of storage, and there was a complete laundry unit in the room. I love that the bed is in its own little space - like a mini bedroom, the entry has a large sofa that’s great for dropping off shopping bags as you walk in or to have a quiet space to read, the bathroom is thoughtfully designed and the linens were plush and heavy - sooooo nice! Parking is very easy, there is a quiet courtyard, and wonderful rooftop patio. Lots of great restaurants in the area deliver, and there’s a Target Store 2 minutes away. Troy made sure to check in on us each day to see how our little One was feeling and if we had any special requests or needs. This hotel is so carefully managed by a team who truly takes pride in their exceptional service and high standards in quality and cleanliness. I agree with the previous reviews that this is a Home Away from Home. I cannot imagine staying anywhere else when I visit Los Angeles. This hotel stay was the best experience I’ve had especially while traveling with young children. There were several families staying here and yet the halls were peaceful and quiet. Thick walls and heavy doors ensured a comfortable and relaxing environment with complete privacy. Highly, highly recommended!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>It was pure luck that brought me to the Plaza la Reina! I had the worst experience at the Kimpton Palomar and had to find a place for the next 1-2 weeks while making daily visits to the hospital. I absolutely love the Plaza and am so glad we found it. We booked a beautiful suite on the 3rd floor with lots of light and fresh air. The general manager and the evening concierge noticed that my little girl was sick when we arrived, so they tag-teamed our check-in to make it super quick and take us to our room so my little one could rest. Amazing service and very considerate in anticipating our needs. Meanwhile, they showed my husband how to get to the secured parking, and were already waiting with a luggage cart before he turned the corner to park. The trunk of our Suburban was packed but Troy (the evening Concierge) made sure to come help us himself and loaded all of our luggage in a flash to get us settled upstairs as quickly as possible. He checked to see if we needed anything delivered (dinner, baby supplies, OTC baby cough medicine, crib) and then called our room a few hours later to make sure we had everything we might need. The furnishings were gorgeous and comfortable. The suite was spacious, bright, had plenty of storage, and there was a complete laundry unit in the room. I...It was pure luck that brought me to the Plaza la Reina! I had the worst experience at the Kimpton Palomar and had to find a place for the next 1-2 weeks while making daily visits to the hospital. I absolutely love the Plaza and am so glad we found it. We booked a beautiful suite on the 3rd floor with lots of light and fresh air. The general manager and the evening concierge noticed that my little girl was sick when we arrived, so they tag-teamed our check-in to make it super quick and take us to our room so my little one could rest. Amazing service and very considerate in anticipating our needs. Meanwhile, they showed my husband how to get to the secured parking, and were already waiting with a luggage cart before he turned the corner to park. The trunk of our Suburban was packed but Troy (the evening Concierge) made sure to come help us himself and loaded all of our luggage in a flash to get us settled upstairs as quickly as possible. He checked to see if we needed anything delivered (dinner, baby supplies, OTC baby cough medicine, crib) and then called our room a few hours later to make sure we had everything we might need. The furnishings were gorgeous and comfortable. The suite was spacious, bright, had plenty of storage, and there was a complete laundry unit in the room. I love that the bed is in its own little space - like a mini bedroom, the entry has a large sofa that’s great for dropping off shopping bags as you walk in or to have a quiet space to read, the bathroom is thoughtfully designed and the linens were plush and heavy - sooooo nice! Parking is very easy, there is a quiet courtyard, and wonderful rooftop patio. Lots of great restaurants in the area deliver, and there’s a Target Store 2 minutes away. Troy made sure to check in on us each day to see how our little One was feeling and if we had any special requests or needs. This hotel is so carefully managed by a team who truly takes pride in their exceptional service and high standards in quality and cleanliness. I agree with the previous reviews that this is a Home Away from Home. I cannot imagine staying anywhere else when I visit Los Angeles. This hotel stay was the best experience I’ve had especially while traveling with young children. There were several families staying here and yet the halls were peaceful and quiet. Thick walls and heavy doors ensured a comfortable and relaxing environment with complete privacy. Highly, highly recommended!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r564466927-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>564466927</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Fabulous Hotel!!</t>
+  </si>
+  <si>
+    <t>A very charming and stylish boutique hotel entrally located in LA, close to Beverly Hills. Extremely friendly and helpful staff, impressively well equipped kitchenette for those who want to eat in. Beautiful linens, bath amenities. Well lit underground secured parking garage.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r562350731-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>562350731</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Absolutely everything we needed!! So comfortable with all the conveniences of home like refrigerator, dishwasher and laundry! Plenty of space to relax in the room, loved opening the balcony for fresh air. Beautiful clean bathroom. The gated indoor parking was an amazing benefit. Close to every type store and many restaurants as well as tourist attractions. Staff was friendly and helpful. They went above and beyond to locate a missing personal item for us. Ten stars!!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r561275455-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>561275455</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Christmas Eve Morning</t>
+  </si>
+  <si>
+    <t>I lost my husband last year so my daughter bought us tickets to beautiful Ca. to do something different for Christmas that would have no attached memories.We were charmed by this beautiful  hacienda like hotel.  We sat on the roof terrace and watched the sun come up on Christmas Eve morning while drinking the delicious coffee we made in our room. The terrace was complete with lemon trees with big lemons on them!  There was an avocado vine complete with avocados. Being from Indiana this was new to us!  It was just us on the roof and it was fantastic.  The hotel staff suggested things for us to do which included having breakfast at the Santa Monica pier while gazing at the ocean.  This is such a special hotel, warm and friendly and they gave two people a special Christmas when they didn't expect it at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>I lost my husband last year so my daughter bought us tickets to beautiful Ca. to do something different for Christmas that would have no attached memories.We were charmed by this beautiful  hacienda like hotel.  We sat on the roof terrace and watched the sun come up on Christmas Eve morning while drinking the delicious coffee we made in our room. The terrace was complete with lemon trees with big lemons on them!  There was an avocado vine complete with avocados. Being from Indiana this was new to us!  It was just us on the roof and it was fantastic.  The hotel staff suggested things for us to do which included having breakfast at the Santa Monica pier while gazing at the ocean.  This is such a special hotel, warm and friendly and they gave two people a special Christmas when they didn't expect it at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r560817665-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>560817665</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>Excellent Choice</t>
+  </si>
+  <si>
+    <t>Had never been to LA before this trip. I loved PLR and the area in general. It's right past the western edge of Beverly Hills, very close to the UCLA campus.The area is very walkable (for anywhere, but especially for LA) and has tons of diverse dining options through all price ranges. Property itself is really cool and seems to mostly consist of an old open air Med style apartment building that's been converted for hotel use. Staff was very friendly, attentive, and helpful. ("How was dinner? Where'd you go?" "Are you going to need any ice tonight?"). Parking is $25 but very secure, convenient, and easy to negotiate. Big bathroom with great walk in shower. Bed was extremely comfortable, and even though my room fronted Lindbrook on the second floor it was pretty quiet. Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had never been to LA before this trip. I loved PLR and the area in general. It's right past the western edge of Beverly Hills, very close to the UCLA campus.The area is very walkable (for anywhere, but especially for LA) and has tons of diverse dining options through all price ranges. Property itself is really cool and seems to mostly consist of an old open air Med style apartment building that's been converted for hotel use. Staff was very friendly, attentive, and helpful. ("How was dinner? Where'd you go?" "Are you going to need any ice tonight?"). Parking is $25 but very secure, convenient, and easy to negotiate. Big bathroom with great walk in shower. Bed was extremely comfortable, and even though my room fronted Lindbrook on the second floor it was pretty quiet. Highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r555948954-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>555948954</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Plaza La Reina offers the convenience of today’s lifestyle, with beautiful vintage style.</t>
+  </si>
+  <si>
+    <t>Plaza La Reina offers the convenience of today’s lifestyle, with the refined elegance and vintage style reminiscent of those early days of Westwood. That’s what makes it the perfect destination for a romantic little getaway. Tucked away from the rest of the city, we felt so at home staying at the Plaza La Reina. Our beautiful one-bedroom private suite was very comfortable and even included a large private terrace.The view from our room was evocative of Italy, as our room overlooked the beautiful terracotta roofed buildings nearby. In the evening, the twinkling city lights of Los Angeles’ modern cityscape framed the scenery. It was like having our own private apartment in the city!Our room was filled with so many modern conveniences that you might not expect from a luxury hotel. We had a fully stocked kitchenette that even included a Bosch washer and dryer! So perfect for a weekend or for a longer extended stay! Walking out the front doors of the hotel, we had dozens of great restaurant options that were only a short walk away. Some of our favorites are Tanino Ristorante, Le Pain Quotidien, Skylights Gardens, and California Pizza Kitchen. There’s even an In ‘n Out Burger nearby, which is a necessity in any college town!MoreShow less</t>
+  </si>
+  <si>
+    <t>Plaza La Reina offers the convenience of today’s lifestyle, with the refined elegance and vintage style reminiscent of those early days of Westwood. That’s what makes it the perfect destination for a romantic little getaway. Tucked away from the rest of the city, we felt so at home staying at the Plaza La Reina. Our beautiful one-bedroom private suite was very comfortable and even included a large private terrace.The view from our room was evocative of Italy, as our room overlooked the beautiful terracotta roofed buildings nearby. In the evening, the twinkling city lights of Los Angeles’ modern cityscape framed the scenery. It was like having our own private apartment in the city!Our room was filled with so many modern conveniences that you might not expect from a luxury hotel. We had a fully stocked kitchenette that even included a Bosch washer and dryer! So perfect for a weekend or for a longer extended stay! Walking out the front doors of the hotel, we had dozens of great restaurant options that were only a short walk away. Some of our favorites are Tanino Ristorante, Le Pain Quotidien, Skylights Gardens, and California Pizza Kitchen. There’s even an In ‘n Out Burger nearby, which is a necessity in any college town!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r548216648-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>548216648</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Exceptional!</t>
+  </si>
+  <si>
+    <t>Our family of 4 stayed at this property and Loved every minute.  The general manager was exceptionally helpful and made us feel welcome and comfortable.  The room was spacious.  We felt at home as the accommodations are very nice.  The bed was plush and the kitchen space was well stocked for what we needed.  I would absolutely stay again and  highly recommend it to anyone looking for a lovely, comfortable, high end place to stay.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r547940134-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>547940134</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>The perfect place to stay!</t>
+  </si>
+  <si>
+    <t>My partner and I spent 3 amazing nights at Plaza La Reina in Westwood, LA. This place is incredible. The rooms are out of this world. 100% luxury. So much thought has gone into the design of this boutique hotel. We will definitely stay again next time we are in LA. It is in a great location, it’s easy to uber everywhere  and the staff are so helpful and friendly. We have only amazing things to say about this place and recommend it to everyone, especially any Aussies wanting to live like a local in a very trendy part of LA! Thanks so much to Plaza La Reina!! We will be back! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>My partner and I spent 3 amazing nights at Plaza La Reina in Westwood, LA. This place is incredible. The rooms are out of this world. 100% luxury. So much thought has gone into the design of this boutique hotel. We will definitely stay again next time we are in LA. It is in a great location, it’s easy to uber everywhere  and the staff are so helpful and friendly. We have only amazing things to say about this place and recommend it to everyone, especially any Aussies wanting to live like a local in a very trendy part of LA! Thanks so much to Plaza La Reina!! We will be back! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r547541686-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>547541686</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>Plaza La Reina exceeded all of our expectations!  Every detail has been considered in choosing the materials for this beautiful building.   We especially loved the bathroom and the comfortable bed.  The suite is spacious and the full kitchen is an added bonus for longer stays.  We were also equally impressed with the staff.  Every employee from the receptionist to the maintenance staff greeted us and asked us how we were enjoying our stay.    Customer service worthy of the Ritz Carlton.  Outstanding!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r541026817-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>541026817</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Relaxing and inviting</t>
+  </si>
+  <si>
+    <t>We only stayed here as we wanted to visit the Getty museum and we found a little gem of a hotel. You would miss it as you drive along the street as it has no signs out front, no big foyer, just a pair of doors with the logo on it a small desk in the foyer and a nice smile to welcome you. The rooms are large, warm and inviting and are more like a serviced apartment. Washer and dryer included in our suit!! There is no restaurant however it is in easy walking of many nice places to eat. Great coffee (the best in LA I might add) can be had at the Ministry of Coffee next to Trader Joes only one block away. This will be our place to stay in LA from here on in as it is quiet, in a really nice location and neighbourhood.MoreShow less</t>
+  </si>
+  <si>
+    <t>We only stayed here as we wanted to visit the Getty museum and we found a little gem of a hotel. You would miss it as you drive along the street as it has no signs out front, no big foyer, just a pair of doors with the logo on it a small desk in the foyer and a nice smile to welcome you. The rooms are large, warm and inviting and are more like a serviced apartment. Washer and dryer included in our suit!! There is no restaurant however it is in easy walking of many nice places to eat. Great coffee (the best in LA I might add) can be had at the Ministry of Coffee next to Trader Joes only one block away. This will be our place to stay in LA from here on in as it is quiet, in a really nice location and neighbourhood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r537762687-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>537762687</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel You’ve Never Heard Of</t>
+  </si>
+  <si>
+    <t>We come to LA fairly frequently and make it a point to stay at different properties so we get a feel for different areas of the city.  I chose Plaza La Reina because of the excellent reviews, the roominess it offered, and the location in Westwood where we had never stayed.  We were extremely pleased with our choice and would definitely consider staying there again.
+The room was immaculate, beautifully furnished with high end, tasteful furniture, and much to my husband’s delight had a nice desk area.  I loved that the bedroom was in a separate room (though not with a door).  The bed was comfy and made with plush linens.  The bathroom was beautifully tiled and outfitted with high end products and thick towels.  We appreciated the Keurig coffee maker and complimentary coffee and teas, as well as the dish ware, refrigerator and dishwasher.  While we did not use them the unit had a nice Bosch washer/dryer set.  Amazingly, the room was quiet - no outside noises despite our location overlooking Lindbrook Avenue and no noises from our neighbors.  I’ve never had a quieter room while in LA.
+We took advantage of the beautiful large outdoor terrace on the top floor of the property.  There are multiple groupings of high quality outdoor furniture and heat lamps.  Lovely surroundings for a cocktail and snacks.
+The service was wonderful, too.  Upon arrival we were greeted by Troy who was helpful with...We come to LA fairly frequently and make it a point to stay at different properties so we get a feel for different areas of the city.  I chose Plaza La Reina because of the excellent reviews, the roominess it offered, and the location in Westwood where we had never stayed.  We were extremely pleased with our choice and would definitely consider staying there again.The room was immaculate, beautifully furnished with high end, tasteful furniture, and much to my husband’s delight had a nice desk area.  I loved that the bedroom was in a separate room (though not with a door).  The bed was comfy and made with plush linens.  The bathroom was beautifully tiled and outfitted with high end products and thick towels.  We appreciated the Keurig coffee maker and complimentary coffee and teas, as well as the dish ware, refrigerator and dishwasher.  While we did not use them the unit had a nice Bosch washer/dryer set.  Amazingly, the room was quiet - no outside noises despite our location overlooking Lindbrook Avenue and no noises from our neighbors.  I’ve never had a quieter room while in LA.We took advantage of the beautiful large outdoor terrace on the top floor of the property.  There are multiple groupings of high quality outdoor furniture and heat lamps.  Lovely surroundings for a cocktail and snacks.The service was wonderful, too.  Upon arrival we were greeted by Troy who was helpful with check in and acted as a nice resource throughout our stay.  He was also fabulous at remembering our names.  The other front desk personnel were also very friendly and helpful and contributed to the welcoming atmosphere.No, this isn’t your typical hotel in that there isn’t a large lobby nor a large front desk staff.  However, if you are seeking a high end property at a reasonable price in a lovely neighborhood I’d strongly encourage you to check out this hotel.  And you can’t beat its closeness to UCLA, the Hammer Museum, or Wiltshire Blvd. with its proximity to Brentwood and Santa Monica and the 405.MoreShow less</t>
+  </si>
+  <si>
+    <t>We come to LA fairly frequently and make it a point to stay at different properties so we get a feel for different areas of the city.  I chose Plaza La Reina because of the excellent reviews, the roominess it offered, and the location in Westwood where we had never stayed.  We were extremely pleased with our choice and would definitely consider staying there again.
+The room was immaculate, beautifully furnished with high end, tasteful furniture, and much to my husband’s delight had a nice desk area.  I loved that the bedroom was in a separate room (though not with a door).  The bed was comfy and made with plush linens.  The bathroom was beautifully tiled and outfitted with high end products and thick towels.  We appreciated the Keurig coffee maker and complimentary coffee and teas, as well as the dish ware, refrigerator and dishwasher.  While we did not use them the unit had a nice Bosch washer/dryer set.  Amazingly, the room was quiet - no outside noises despite our location overlooking Lindbrook Avenue and no noises from our neighbors.  I’ve never had a quieter room while in LA.
+We took advantage of the beautiful large outdoor terrace on the top floor of the property.  There are multiple groupings of high quality outdoor furniture and heat lamps.  Lovely surroundings for a cocktail and snacks.
+The service was wonderful, too.  Upon arrival we were greeted by Troy who was helpful with...We come to LA fairly frequently and make it a point to stay at different properties so we get a feel for different areas of the city.  I chose Plaza La Reina because of the excellent reviews, the roominess it offered, and the location in Westwood where we had never stayed.  We were extremely pleased with our choice and would definitely consider staying there again.The room was immaculate, beautifully furnished with high end, tasteful furniture, and much to my husband’s delight had a nice desk area.  I loved that the bedroom was in a separate room (though not with a door).  The bed was comfy and made with plush linens.  The bathroom was beautifully tiled and outfitted with high end products and thick towels.  We appreciated the Keurig coffee maker and complimentary coffee and teas, as well as the dish ware, refrigerator and dishwasher.  While we did not use them the unit had a nice Bosch washer/dryer set.  Amazingly, the room was quiet - no outside noises despite our location overlooking Lindbrook Avenue and no noises from our neighbors.  I’ve never had a quieter room while in LA.We took advantage of the beautiful large outdoor terrace on the top floor of the property.  There are multiple groupings of high quality outdoor furniture and heat lamps.  Lovely surroundings for a cocktail and snacks.The service was wonderful, too.  Upon arrival we were greeted by Troy who was helpful with check in and acted as a nice resource throughout our stay.  He was also fabulous at remembering our names.  The other front desk personnel were also very friendly and helpful and contributed to the welcoming atmosphere.No, this isn’t your typical hotel in that there isn’t a large lobby nor a large front desk staff.  However, if you are seeking a high end property at a reasonable price in a lovely neighborhood I’d strongly encourage you to check out this hotel.  And you can’t beat its closeness to UCLA, the Hammer Museum, or Wiltshire Blvd. with its proximity to Brentwood and Santa Monica and the 405.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r534715357-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>534715357</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were coming to LA to visit UCLA and this was a great choice. It is perfectly located just off of Westwood village walking distance to everything, Parking is convenient, room is spacious, clean, and well appointed, and the staff was very friendly. My only criticism is we couldn't get a room with 2 beds. The sofa does pull out to a bed, but even the best sofa beds aren't that wonderful. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r509135414-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>509135414</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Nice place but suites don't have door between living area and bedroom</t>
+  </si>
+  <si>
+    <t>The Plaza La Reina is a new boutique hotel that is centrally located in Westwood, around the corner from the Hammer Museum. We stayed here, getting a one-bedroom suite, because we thought our 20-year-old son might join us and so could stay on the sofa bed. But when we arrived, we were surprised to see there is no door between the bedroom and the living area. If he wanted to use the bathroom in the middle of the night, he'd have to go right past our bed. I have not seen this sort of arrangement in any one-bedroom suite anywhere in the world, and it really was not what we expected. We checked and unfortunately every suite here had this sort of set-up. The manager was very understanding and so we checked out after one night and went to a different hotel nearby where we could get two bedrooms. This is a good space with a lot of charm, particularly for an extended stay, as long as you don't need or want privacy with any extra guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Plaza La Reina is a new boutique hotel that is centrally located in Westwood, around the corner from the Hammer Museum. We stayed here, getting a one-bedroom suite, because we thought our 20-year-old son might join us and so could stay on the sofa bed. But when we arrived, we were surprised to see there is no door between the bedroom and the living area. If he wanted to use the bathroom in the middle of the night, he'd have to go right past our bed. I have not seen this sort of arrangement in any one-bedroom suite anywhere in the world, and it really was not what we expected. We checked and unfortunately every suite here had this sort of set-up. The manager was very understanding and so we checked out after one night and went to a different hotel nearby where we could get two bedrooms. This is a good space with a lot of charm, particularly for an extended stay, as long as you don't need or want privacy with any extra guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r508328195-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>508328195</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Wonderful staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I spent arround one month in the hotel July 2017..The staff are wonderful and polite... location is great with lot of restaurants walking distance ... rooms are big clean and beautiful day light... Underground parking is always available with easy access...As a boutique hotel the only missing is a safe in the room and a GYM...I advise  plaza la reina for me it was a great choice for a month vacation...Troy is so helpful and welcoming...Good luck </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r508061091-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>508061091</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Beware when booking thru Hotels.com</t>
+  </si>
+  <si>
+    <t>The hotel is great in terms of room size, room facilities and location. The room is beautiful and quiet. They have Bosch washer and dryer, full set of cutlery and cooking utensils. The location is great as there are lots of restaurants and supermarkets within walking distance.
+However, the experience in checking in really gave me a shock as they said Hotels.com cancelled my booking. I searched on my phone and let them see my confirmed booking online but they said they didn't get any payment from Hotels.com ( my room was prepaid). They could give me another room by holding a payment with my credit card as they would communicate with Hotels.com the next day. As I was traveling with kid, I really needed a place to stay, I had no choice. When I got in my room, I immediately called Hotels.com customer service to complain. Finally, Hotels.com contacted Plaza La Reina and solved the problem. I have no idea why Plaza La Reina didn't contact Hotels.com on the spot to resolve the problem but I was the one who needed to do it. I also have no idea why Hotels.com canceled my booking with Plaza La Reina. In addition to this, I had a very bad experience booking my car with Hotels.com's agent - Cartrawler. I didn't get the same class type when picking up my car at Thrifty. Thrifty said they never had that specific car with...The hotel is great in terms of room size, room facilities and location. The room is beautiful and quiet. They have Bosch washer and dryer, full set of cutlery and cooking utensils. The location is great as there are lots of restaurants and supermarkets within walking distance.However, the experience in checking in really gave me a shock as they said Hotels.com cancelled my booking. I searched on my phone and let them see my confirmed booking online but they said they didn't get any payment from Hotels.com ( my room was prepaid). They could give me another room by holding a payment with my credit card as they would communicate with Hotels.com the next day. As I was traveling with kid, I really needed a place to stay, I had no choice. When I got in my room, I immediately called Hotels.com customer service to complain. Finally, Hotels.com contacted Plaza La Reina and solved the problem. I have no idea why Plaza La Reina didn't contact Hotels.com on the spot to resolve the problem but I was the one who needed to do it. I also have no idea why Hotels.com canceled my booking with Plaza La Reina. In addition to this, I had a very bad experience booking my car with Hotels.com's agent - Cartrawler. I didn't get the same class type when picking up my car at Thrifty. Thrifty said they never had that specific car with them. So, beware of booking with Hotels.com and make sure your reconfirm your booking prior to travel to avoid disappointment. Furthermore, don't ever book your car thru Cartrawler to spoil your holiday.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is great in terms of room size, room facilities and location. The room is beautiful and quiet. They have Bosch washer and dryer, full set of cutlery and cooking utensils. The location is great as there are lots of restaurants and supermarkets within walking distance.
+However, the experience in checking in really gave me a shock as they said Hotels.com cancelled my booking. I searched on my phone and let them see my confirmed booking online but they said they didn't get any payment from Hotels.com ( my room was prepaid). They could give me another room by holding a payment with my credit card as they would communicate with Hotels.com the next day. As I was traveling with kid, I really needed a place to stay, I had no choice. When I got in my room, I immediately called Hotels.com customer service to complain. Finally, Hotels.com contacted Plaza La Reina and solved the problem. I have no idea why Plaza La Reina didn't contact Hotels.com on the spot to resolve the problem but I was the one who needed to do it. I also have no idea why Hotels.com canceled my booking with Plaza La Reina. In addition to this, I had a very bad experience booking my car with Hotels.com's agent - Cartrawler. I didn't get the same class type when picking up my car at Thrifty. Thrifty said they never had that specific car with...The hotel is great in terms of room size, room facilities and location. The room is beautiful and quiet. They have Bosch washer and dryer, full set of cutlery and cooking utensils. The location is great as there are lots of restaurants and supermarkets within walking distance.However, the experience in checking in really gave me a shock as they said Hotels.com cancelled my booking. I searched on my phone and let them see my confirmed booking online but they said they didn't get any payment from Hotels.com ( my room was prepaid). They could give me another room by holding a payment with my credit card as they would communicate with Hotels.com the next day. As I was traveling with kid, I really needed a place to stay, I had no choice. When I got in my room, I immediately called Hotels.com customer service to complain. Finally, Hotels.com contacted Plaza La Reina and solved the problem. I have no idea why Plaza La Reina didn't contact Hotels.com on the spot to resolve the problem but I was the one who needed to do it. I also have no idea why Hotels.com canceled my booking with Plaza La Reina. In addition to this, I had a very bad experience booking my car with Hotels.com's agent - Cartrawler. I didn't get the same class type when picking up my car at Thrifty. Thrifty said they never had that specific car with them. So, beware of booking with Hotels.com and make sure your reconfirm your booking prior to travel to avoid disappointment. Furthermore, don't ever book your car thru Cartrawler to spoil your holiday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r502645528-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>502645528</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Extended stay hotel</t>
+  </si>
+  <si>
+    <t>3 day stay in a one bedroom suite.New with nice furnishings and linens, very friendly service, location-close to the 405, Westwood with restaurants and shops, walking distance to UCLA, free parking.Rooms include a small refrigerator, dishwasher, microwave and 2 burner stove top.Washer and dryer.The one room suite we stayed in did not have a door separating the room from the living space, just FYI.I think they are just getting their staff on board, because the very helpful man that checked me in, also delivered sheets, blanket for the pull out sofa and when I checked in room was not ready at 3 PM-check in time.  Which makes me think they are not fully staffed at this time.I agree this is not a 5 star hotel, no pool/spa/restaurant/valet etc,. if thats what you are looking for look elsewhere, plenty in the area, but if you want a friendly, spacious room in a great location I would definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>3 day stay in a one bedroom suite.New with nice furnishings and linens, very friendly service, location-close to the 405, Westwood with restaurants and shops, walking distance to UCLA, free parking.Rooms include a small refrigerator, dishwasher, microwave and 2 burner stove top.Washer and dryer.The one room suite we stayed in did not have a door separating the room from the living space, just FYI.I think they are just getting their staff on board, because the very helpful man that checked me in, also delivered sheets, blanket for the pull out sofa and when I checked in room was not ready at 3 PM-check in time.  Which makes me think they are not fully staffed at this time.I agree this is not a 5 star hotel, no pool/spa/restaurant/valet etc,. if thats what you are looking for look elsewhere, plenty in the area, but if you want a friendly, spacious room in a great location I would definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r502548298-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>502548298</t>
+  </si>
+  <si>
+    <t>10 stars</t>
+  </si>
+  <si>
+    <t>The space was clean and beautiful, no sign of dog (I mention this since it's a dog-friendly hotel).  The bathroom, the linens, the beddings were immaculate.  The bed and pillows were comfortable.  The toiletries were etro.  There was a washer and dryer (Bosch) which we used, a dishwasher (Fisher &amp; Paykel), various detergents -- everything you need, really. Tea kettle, coffee maker, pots and pans, plates, and silverware, even measuring cups!  Couch cushions were deflated looking but who cares! It was all so lovely.  The suite truly was home away from home.The location is excellent -- Westwood Village.  There are so many restaurants nearby, and two cute old timey theaters, all walking distance.  There is also a Target, a Ralph's and Whole Foods, also walking distance.  I could seriously live here.And it gets better: complimentary self parking, in/out privileges, in Los Angeles.MoreShow less</t>
+  </si>
+  <si>
+    <t>The space was clean and beautiful, no sign of dog (I mention this since it's a dog-friendly hotel).  The bathroom, the linens, the beddings were immaculate.  The bed and pillows were comfortable.  The toiletries were etro.  There was a washer and dryer (Bosch) which we used, a dishwasher (Fisher &amp; Paykel), various detergents -- everything you need, really. Tea kettle, coffee maker, pots and pans, plates, and silverware, even measuring cups!  Couch cushions were deflated looking but who cares! It was all so lovely.  The suite truly was home away from home.The location is excellent -- Westwood Village.  There are so many restaurants nearby, and two cute old timey theaters, all walking distance.  There is also a Target, a Ralph's and Whole Foods, also walking distance.  I could seriously live here.And it gets better: complimentary self parking, in/out privileges, in Los Angeles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r502354528-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>502354528</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>This is not a 5 star hotel but it is a 5 star place</t>
+  </si>
+  <si>
+    <t>We loved this place. Perfectly located, it does not have a swimming pool or any fancy amenities but the rooms are lovely will all the facilities you may need. the staff are unbelievably helpful and that what makes this place. You can stand on the roof top overlooking the terracotta rooftops and imagine being in a tuscan village - its bizarre but very restful and discrete. Classy and perfectly executed - where else would you find Etro bathroom accessories. That is just the icing on the case. Well done folks - we thought you were fab! Laundry facilities in the room - what more do you need!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r501004195-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>501004195</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Fantastic hotel near UCLA</t>
+  </si>
+  <si>
+    <t>We stayed at Plaza La Reina for our son's new student orientation at UCLA and have already booked a room for family weekend in the fall.  It's a lovely facility with an attentive and helpful staff right in the middle of Westwood just a short walk from campus.The rooms are very nice, large, with hardwood floors, lots of windows (that actually open) a comfortable bed and multiple places to sit.  As an added bonus, the room has a small kitchen and washer/dryer.We have already made plans to return in a few months - I can't think of a nicer, closer place to stay for visiting UCLA (or anything else in the Westwood area).MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at Plaza La Reina for our son's new student orientation at UCLA and have already booked a room for family weekend in the fall.  It's a lovely facility with an attentive and helpful staff right in the middle of Westwood just a short walk from campus.The rooms are very nice, large, with hardwood floors, lots of windows (that actually open) a comfortable bed and multiple places to sit.  As an added bonus, the room has a small kitchen and washer/dryer.We have already made plans to return in a few months - I can't think of a nicer, closer place to stay for visiting UCLA (or anything else in the Westwood area).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r500013812-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>500013812</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>A nice stay in Westwood</t>
+  </si>
+  <si>
+    <t>We went to Plaza La Reina to work, in need of quiet and no distractions, and we found it here.  The noise was very low, even though it's in quite a busy area of Westwood.  The courtyard was pretty, with a little fountain and the rooftop was a nice addition.  Good views and plenty of seating/umbrellas.  
+Decor inside the lobby was beautiful.  Created a great, mature, stylist atmosphere.  The rooms themselves were absolutely gorgeous.  Plenty of room.  Fridge, washing machine, sink, coffee maker.  Plus great TV's - with on demand.  
+I hate to write this - but the reason I did not give it 5 stars is because the room cleaning was really bad.  Three out of our five of our nights, we had to call down several times to the front desk to ask them to send someone to service the room.  Those three days, they ended up coming at 8pm to clean, and when they did - they didn't leave us any more shampoo, soap, conditioner, teabags, clean sheets and robes.  
+That was the only downside.... The manager (or whoever the lovely man at the desk was) was extremely apologetic and he was the one who actually ended up helping us out with new shampoos etc.  I understand if they were understaffed, but people still need their room cleaned.  I hope they manage to find a way to overcome that problem - because it is indeed a big...We went to Plaza La Reina to work, in need of quiet and no distractions, and we found it here.  The noise was very low, even though it's in quite a busy area of Westwood.  The courtyard was pretty, with a little fountain and the rooftop was a nice addition.  Good views and plenty of seating/umbrellas.  Decor inside the lobby was beautiful.  Created a great, mature, stylist atmosphere.  The rooms themselves were absolutely gorgeous.  Plenty of room.  Fridge, washing machine, sink, coffee maker.  Plus great TV's - with on demand.  I hate to write this - but the reason I did not give it 5 stars is because the room cleaning was really bad.  Three out of our five of our nights, we had to call down several times to the front desk to ask them to send someone to service the room.  Those three days, they ended up coming at 8pm to clean, and when they did - they didn't leave us any more shampoo, soap, conditioner, teabags, clean sheets and robes.  That was the only downside.... The manager (or whoever the lovely man at the desk was) was extremely apologetic and he was the one who actually ended up helping us out with new shampoos etc.  I understand if they were understaffed, but people still need their room cleaned.  I hope they manage to find a way to overcome that problem - because it is indeed a big problem.They have free parking (yes, you heard me..free!), which is in a safe, underground car park, with plenty of spaces.  The staff were very nice and helpful.  Nothing negative to say at all.  They gave us recommendations on nice places to eat and cool places to go and visit.  Always had a smile on their face and always had time to help us.The location is brilliant.  Minutes away from the Hammer Museum, close to the Botanical Gardens, the Geffen Playhouse and the Regency Village Theatre.  4/5 stars!  (Just please work on the staff shortage, please)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We went to Plaza La Reina to work, in need of quiet and no distractions, and we found it here.  The noise was very low, even though it's in quite a busy area of Westwood.  The courtyard was pretty, with a little fountain and the rooftop was a nice addition.  Good views and plenty of seating/umbrellas.  
+Decor inside the lobby was beautiful.  Created a great, mature, stylist atmosphere.  The rooms themselves were absolutely gorgeous.  Plenty of room.  Fridge, washing machine, sink, coffee maker.  Plus great TV's - with on demand.  
+I hate to write this - but the reason I did not give it 5 stars is because the room cleaning was really bad.  Three out of our five of our nights, we had to call down several times to the front desk to ask them to send someone to service the room.  Those three days, they ended up coming at 8pm to clean, and when they did - they didn't leave us any more shampoo, soap, conditioner, teabags, clean sheets and robes.  
+That was the only downside.... The manager (or whoever the lovely man at the desk was) was extremely apologetic and he was the one who actually ended up helping us out with new shampoos etc.  I understand if they were understaffed, but people still need their room cleaned.  I hope they manage to find a way to overcome that problem - because it is indeed a big...We went to Plaza La Reina to work, in need of quiet and no distractions, and we found it here.  The noise was very low, even though it's in quite a busy area of Westwood.  The courtyard was pretty, with a little fountain and the rooftop was a nice addition.  Good views and plenty of seating/umbrellas.  Decor inside the lobby was beautiful.  Created a great, mature, stylist atmosphere.  The rooms themselves were absolutely gorgeous.  Plenty of room.  Fridge, washing machine, sink, coffee maker.  Plus great TV's - with on demand.  I hate to write this - but the reason I did not give it 5 stars is because the room cleaning was really bad.  Three out of our five of our nights, we had to call down several times to the front desk to ask them to send someone to service the room.  Those three days, they ended up coming at 8pm to clean, and when they did - they didn't leave us any more shampoo, soap, conditioner, teabags, clean sheets and robes.  That was the only downside.... The manager (or whoever the lovely man at the desk was) was extremely apologetic and he was the one who actually ended up helping us out with new shampoos etc.  I understand if they were understaffed, but people still need their room cleaned.  I hope they manage to find a way to overcome that problem - because it is indeed a big problem.They have free parking (yes, you heard me..free!), which is in a safe, underground car park, with plenty of spaces.  The staff were very nice and helpful.  Nothing negative to say at all.  They gave us recommendations on nice places to eat and cool places to go and visit.  Always had a smile on their face and always had time to help us.The location is brilliant.  Minutes away from the Hammer Museum, close to the Botanical Gardens, the Geffen Playhouse and the Regency Village Theatre.  4/5 stars!  (Just please work on the staff shortage, please)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r497863647-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>497863647</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great new location </t>
+  </si>
+  <si>
+    <t>Overall a pleasant 4 night stay.  New property with great location.  Arrived late night after long flight and they put us in a wrong room when we checked in but quickly rectified within an hour.  Staff seems to be multitasking too much.  However can feel the team is trying their best and good solid effort to improve!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r491412581-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>491412581</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>yes yes yes!</t>
+  </si>
+  <si>
+    <t>Would highly recommend, stayed here while away for business when extending for the long weekend and thought it was incredibly comfortable. Good location away from the noise of Los Angeles. Staff were friendly and bilingual</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r490309199-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>490309199</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>The Perfect Staycation</t>
+  </si>
+  <si>
+    <t>My boyfriend and I spent 2 nights at Plaza La Reina. We both needed to press pause for a little bit and thats exactly what we did! We stayed in a junior suite with a lovely little balcony and we spent 95% of our stay in the room. The room was homey and spacious. I loved the decor it didn't feel bland like most hotels room. At first we were a little nervous that  it was going to be noisy cause our balcony was street facing but it was so quiet(I need those windows in my apartment)!! The other 5% we walked to get food and drinks, such a convenient location and it was nice to not have to drive at all that weekend. Even though we didn't interact with the staff much they were very pleasant and let us keep to ourselves which I appreciated.If you're looking for a home away from home, in a great location, with the amenities and convenience of a hotel look no further!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>My boyfriend and I spent 2 nights at Plaza La Reina. We both needed to press pause for a little bit and thats exactly what we did! We stayed in a junior suite with a lovely little balcony and we spent 95% of our stay in the room. The room was homey and spacious. I loved the decor it didn't feel bland like most hotels room. At first we were a little nervous that  it was going to be noisy cause our balcony was street facing but it was so quiet(I need those windows in my apartment)!! The other 5% we walked to get food and drinks, such a convenient location and it was nice to not have to drive at all that weekend. Even though we didn't interact with the staff much they were very pleasant and let us keep to ourselves which I appreciated.If you're looking for a home away from home, in a great location, with the amenities and convenience of a hotel look no further!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r487119200-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>487119200</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Incredible stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've never written reviews on any hotels I've stayed at, but I had to for this one. The place was spectacular, perfect location in Westwood, great for pictures! and not to mention the staff were incredibly kind! </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r483469183-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>483469183</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Great Boutique Hotel</t>
+  </si>
+  <si>
+    <t>What a great find in Westwood.   This new boutique hotel offers you a level  of comfort that will make a relaxing stay after a hectic day in LA.   The staff is awesome and when you add this to the decor, you truly have a great place! A gem that you will come to love in Westwood!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r483071244-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>483071244</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>One of the best</t>
+  </si>
+  <si>
+    <t>I never wrote a review before on trip advisor but it seemed worth it to write something about this hotel. It was one of the best hotel I've ever stayed, with such loving staff! Such a Beautiful hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r483062197-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>483062197</t>
+  </si>
+  <si>
+    <t>TRULY SATISFIED!</t>
+  </si>
+  <si>
+    <t>This was the best hotel I've stayed at by far. The concierge (Troy) and Enrique (Room) had the best customer service! All the little things they did were truly touching to us. They made us feel like home and even took the time to help us plan our days! I was very happy with this and so were my 3 other friends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r471485884-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>471485884</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Excellent, Quiet Hotel with Wonderful Staff</t>
+  </si>
+  <si>
+    <t>Finding this place was a real gem! It's super new and everything is modern and up-to-date. I love that they have a mini kitchen in each room with dishes, silverware, cookware and dishwasher. Some units even have a washer and dryer which is perfect if you are there for an extended stay! (Nothing better than flying home with clean clothes!) The staff is super friendly, helpful and accommodating. The only thing to note is that they don't have room service (YET!) so you do have to run out for your breakfast (coffee!) and meals (although they do have a Keurig in the room) and you are missing some amenities that are typical of a hotel like a gym (although there is one around the corner) and valet (but I believe this is in the works.) But again, they're just getting off their feet! I HIGHLY recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Finding this place was a real gem! It's super new and everything is modern and up-to-date. I love that they have a mini kitchen in each room with dishes, silverware, cookware and dishwasher. Some units even have a washer and dryer which is perfect if you are there for an extended stay! (Nothing better than flying home with clean clothes!) The staff is super friendly, helpful and accommodating. The only thing to note is that they don't have room service (YET!) so you do have to run out for your breakfast (coffee!) and meals (although they do have a Keurig in the room) and you are missing some amenities that are typical of a hotel like a gym (although there is one around the corner) and valet (but I believe this is in the works.) But again, they're just getting off their feet! I HIGHLY recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r471385654-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>471385654</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>I stayed at Plaza la Reina during a work trip recently, and had a wonderful experience. The room was quite large and beautiful, with great kitchen amenities as well as a washer and dryer. The staff were extremely pleasant and helpful as well. I would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r459124983-Plaza_La_Reina-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>459124983</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel in Westwood</t>
+  </si>
+  <si>
+    <t>I spent a month at this hotel while working at UCLA and I loved it. Great staff, great design, big rooms with kitchens, living area, all impeccably done. Quality furnishings and appliances are the norm; really well done. Recommended....</t>
+  </si>
+  <si>
+    <t>January 2017</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1436,2538 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>118</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>99</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>136</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>142</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" t="s">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>142</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>142</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s">
+        <v>216</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>142</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>219</v>
+      </c>
+      <c r="J30" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L30" t="s">
+        <v>221</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>142</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" t="s">
+        <v>226</v>
+      </c>
+      <c r="L31" t="s">
+        <v>227</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>142</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>142</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>239</v>
+      </c>
+      <c r="O33" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" t="s">
+        <v>245</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>239</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>247</v>
+      </c>
+      <c r="J35" t="s">
+        <v>248</v>
+      </c>
+      <c r="K35" t="s">
+        <v>249</v>
+      </c>
+      <c r="L35" t="s">
+        <v>250</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>166</v>
+      </c>
+      <c r="O35" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>259</v>
+      </c>
+      <c r="J37" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" t="s">
+        <v>262</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O37" t="s">
+        <v>100</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" t="s">
+        <v>268</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>263</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>270</v>
+      </c>
+      <c r="J39" t="s">
+        <v>271</v>
+      </c>
+      <c r="K39" t="s">
+        <v>272</v>
+      </c>
+      <c r="L39" t="s">
+        <v>273</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>263</v>
+      </c>
+      <c r="O39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>274</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>275</v>
+      </c>
+      <c r="J40" t="s">
+        <v>271</v>
+      </c>
+      <c r="K40" t="s">
+        <v>276</v>
+      </c>
+      <c r="L40" t="s">
+        <v>277</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>263</v>
+      </c>
+      <c r="O40" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>278</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>279</v>
+      </c>
+      <c r="J41" t="s">
+        <v>280</v>
+      </c>
+      <c r="K41" t="s">
+        <v>281</v>
+      </c>
+      <c r="L41" t="s">
+        <v>282</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>166</v>
+      </c>
+      <c r="O41" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>285</v>
+      </c>
+      <c r="J42" t="s">
+        <v>280</v>
+      </c>
+      <c r="K42" t="s">
+        <v>286</v>
+      </c>
+      <c r="L42" t="s">
+        <v>287</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>166</v>
+      </c>
+      <c r="O42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>66184</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>288</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>289</v>
+      </c>
+      <c r="J43" t="s">
+        <v>290</v>
+      </c>
+      <c r="K43" t="s">
+        <v>291</v>
+      </c>
+      <c r="L43" t="s">
+        <v>292</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>293</v>
+      </c>
+      <c r="O43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_581.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_581.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="336">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>girlgonetravelin</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We recently spend a long weekend here as we have family living nearby and were very happy with our stay at this boutique hotel. The property has a beautiful courtyard and rooftop terrace and the rooms are nicely decorated. This property is especially good if you want to stay in for some meals as the kitchenettes are well equipped with a refrigerator, microwave, cooktop, dishwasher and Keurig. Our room also included a 1/2 bath in addition to the full bath and a washer/dryer. There are many restaurants and coffee shops as well as a Whole Foods in walking distance. Out loft style room had great light with lots of windows and good shades as well. Room was very clean and bed was comfortable. Do know that this is not a full service hotel. There is no valet, room service, restaurant etc. on the premises. A staff member told me that they plan to have a restaurant on site in the future and some type of wine service on the rooftop terrace soon. We most definitely will stay here again.More</t>
   </si>
   <si>
+    <t>Shermyanne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r586229702-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>The room was elegant.  The hotel is very conveniently located in the Westwood neighborhood of Los Angeles.  Parking is available, secure and affordable ($25.00).  Staff is limited but friendly.Hard to know where to go for breakfast, though.  There is a fridge in the room (as well as other appliances) so the best option is probably to eat in the room.  There is a Denny’s across the street but we found it smelly, dirty and generally deplorable.More</t>
   </si>
   <si>
+    <t>eurotripper22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r586074697-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>Rarely have I stayed anywhere that I booked based on TA reviews that exceeded my expectations in every way. Plaza La Reina is one of these. My review follows, but suffice it to say I would recommend this charming hotel to anyone needing to stay in the Westwood area.Check-in/front desk - loved being able to park below the hotel especially in this busy area.  Beautiful lobby with intimate desk setting for check-in.  Staff could not have been nicer or more accommodating. Room/facilities - we booked a junior suite for myself, wife and daughter.  Huge living room, very nice kitchenette and spacious bedroom.  The room felt brand new.  Exceptionally clean and well maintained. Bathroom was huge, modern and also seemed brand new. Overall the room was much better than what the pictures show. There is a rooftop terrace (BYOB) that is beautifully decorated and has a great view.  Our room overlooked a beautiful interior courtyard.Overall I can't say enough about this hotel.  As my daughter is attending UCLA starting this fall, this will be the only place I stay when we come to visit.  I hesitate to write this review as I don't want others to find this place and make it any harder to get a room!More</t>
   </si>
   <si>
+    <t>bobadoodle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r583441452-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -244,6 +256,9 @@
   </si>
   <si>
     <t>May 2018</t>
+  </si>
+  <si>
+    <t>Billtrav</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r583190871-Plaza_La_Reina-Los_Angeles_California.html</t>
@@ -287,6 +302,9 @@
 -Loft rooms: Be aware they are damp without light. In full transparency : We were generously offered this room after the one we were given looked out onto a parking lot but in retrospect...Nice and new property, could be great but my experience was very bad as a business traveler. Do not advise a stay here particularly if you are a business person or if you want any normal hotel services. This hotel is a 3 star extended stay - not a 4.5 hotel. Suggest the hotel advertise as such to eliminate frustration.Pros:-Well located-New-Troy and Jeff very kindCons:-Cleaning mediocre - Room was not cleaned, just bed made. Never received new toiletries, water or coffee &amp; had to ask reception nightly.-Be aware entrance is not visible from the street. After you know where you're going, you will find it but first time, you will scratch your head as to where reception is. This would be solved by an awning at the entrance so you can see it street-side.-Poor management - We had some issues at checkin including a disagreement. Management never contacted us during our stay to ensure all is ok.-Poor interior design and planning - too long of a list. Examples: Desk in room but no plug within 15 feet of desk, no lighting other than bedside in our bedroom, 3 bulbs out in rooms, exterior light was not operating.-Loft rooms: Be aware they are damp without light. In full transparency : We were generously offered this room after the one we were given looked out onto a parking lot but in retrospect after several days without light (or coffee), we desperately wanted to leave.-Hotel is not staffed properly - Concierge staff are too nice and go above and beyond but they are the guts of the establishment. Never saw anyone else - they are stretched.-A roof deck without services - Gorgeous roof deck but no water, music, power or life (other than some beautiful trees). Yes, we are discerning, but when you book a room at a high star level, you expect service to be on par. Otherwise, wbee could have booked other places at the same price (some less). I actually think they thought were were crazy and so in turn may they avoided us? - when in fact we could be won over. Very Disappointing.More</t>
   </si>
   <si>
+    <t>Arif M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r582893497-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
   </si>
   <si>
     <t>Excellent boutique hotel with personalized service. Jeff who was at the front was truly exceptional and went above and beyond to cater to us. Strongly recommend this hotel ! Rooms are very unique and brand new. You are in the heart of Westwood but feel like you are in a villa. Very impressed with this hotel.</t>
+  </si>
+  <si>
+    <t>janblackburn</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r579274022-Plaza_La_Reina-Los_Angeles_California.html</t>
@@ -327,6 +348,9 @@
 This was my family’s first time in Los Angeles, and thanks to Billy and Plaza la Reina, my parents raved about their vacation and now other family members are coming to visit LA and are coming back to stay at Plaza la Reina in the near future, including my cousins and two of my brothers. Needless to say, whenever my parents come back to LA, Plaza la Reina will be the place...From the moment I discussed my parents vacation and hotel options with the hotel concierge Billy, I knew I had chosen the right place. Billy is knowledgeable of the west side of LA, as he is a native Los Angeleno, and has worked in many of the area hotels; making him an amazing concierge. He offered my family a great hotel option at Plaza la Reina, I can’t stop raving about the it; the hotel, the staff, the cleanliness, the location, and many other things. From the moment we arrived, Billy greeted us with an amazing smile, was extremely respectful and helpful through every single step of our vacation. He was always offering us options of places to visit, always offered water for our walks, and was very attentive and extremely quick with any requests we had, whether an extra towel or a dental kit. We didn’t cook so that wasn’t an issue, my parents wanted a nice suite, and he provided an amazing place for the week. This was my family’s first time in Los Angeles, and thanks to Billy and Plaza la Reina, my parents raved about their vacation and now other family members are coming to visit LA and are coming back to stay at Plaza la Reina in the near future, including my cousins and two of my brothers. Needless to say, whenever my parents come back to LA, Plaza la Reina will be the place they will choose to stay.HIGHLY recommended hotel. Great prices. Great location. Thanks, Billy. Thanks everyone there!More</t>
   </si>
   <si>
+    <t>Shevette J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r579273604-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>TxTree</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r576976878-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -363,6 +390,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>ALAN E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r571773260-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>Y T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r571537487-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -399,6 +432,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Jim G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r570909427-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -414,6 +450,9 @@
     <t>My wife and I are in the interesting position of having to stay in Los Angeles 2 nights a week for work - since our home is beyond a reasonable commuting distance. Plaza La Reina has become our home away from home. Excellent large, well appointment rooms, outstanding customer service - an overall wonderful experience. Only one minor improvement suggestion - having an onsite workout room. Going to LA Fitness around the corner is an option - but obviously does not match the upscale experience and ambience of the hotel.</t>
   </si>
   <si>
+    <t>SaltyDayz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r566798889-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -435,6 +474,9 @@
     <t>It was pure luck that brought me to the Plaza la Reina! I had the worst experience at the Kimpton Palomar and had to find a place for the next 1-2 weeks while making daily visits to the hospital. I absolutely love the Plaza and am so glad we found it. We booked a beautiful suite on the 3rd floor with lots of light and fresh air. The general manager and the evening concierge noticed that my little girl was sick when we arrived, so they tag-teamed our check-in to make it super quick and take us to our room so my little one could rest. Amazing service and very considerate in anticipating our needs. Meanwhile, they showed my husband how to get to the secured parking, and were already waiting with a luggage cart before he turned the corner to park. The trunk of our Suburban was packed but Troy (the evening Concierge) made sure to come help us himself and loaded all of our luggage in a flash to get us settled upstairs as quickly as possible. He checked to see if we needed anything delivered (dinner, baby supplies, OTC baby cough medicine, crib) and then called our room a few hours later to make sure we had everything we might need. The furnishings were gorgeous and comfortable. The suite was spacious, bright, had plenty of storage, and there was a complete laundry unit in the room. I...It was pure luck that brought me to the Plaza la Reina! I had the worst experience at the Kimpton Palomar and had to find a place for the next 1-2 weeks while making daily visits to the hospital. I absolutely love the Plaza and am so glad we found it. We booked a beautiful suite on the 3rd floor with lots of light and fresh air. The general manager and the evening concierge noticed that my little girl was sick when we arrived, so they tag-teamed our check-in to make it super quick and take us to our room so my little one could rest. Amazing service and very considerate in anticipating our needs. Meanwhile, they showed my husband how to get to the secured parking, and were already waiting with a luggage cart before he turned the corner to park. The trunk of our Suburban was packed but Troy (the evening Concierge) made sure to come help us himself and loaded all of our luggage in a flash to get us settled upstairs as quickly as possible. He checked to see if we needed anything delivered (dinner, baby supplies, OTC baby cough medicine, crib) and then called our room a few hours later to make sure we had everything we might need. The furnishings were gorgeous and comfortable. The suite was spacious, bright, had plenty of storage, and there was a complete laundry unit in the room. I love that the bed is in its own little space - like a mini bedroom, the entry has a large sofa that’s great for dropping off shopping bags as you walk in or to have a quiet space to read, the bathroom is thoughtfully designed and the linens were plush and heavy - sooooo nice! Parking is very easy, there is a quiet courtyard, and wonderful rooftop patio. Lots of great restaurants in the area deliver, and there’s a Target Store 2 minutes away. Troy made sure to check in on us each day to see how our little One was feeling and if we had any special requests or needs. This hotel is so carefully managed by a team who truly takes pride in their exceptional service and high standards in quality and cleanliness. I agree with the previous reviews that this is a Home Away from Home. I cannot imagine staying anywhere else when I visit Los Angeles. This hotel stay was the best experience I’ve had especially while traveling with young children. There were several families staying here and yet the halls were peaceful and quiet. Thick walls and heavy doors ensured a comfortable and relaxing environment with complete privacy. Highly, highly recommended!!!More</t>
   </si>
   <si>
+    <t>Vinanthi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r564466927-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -453,6 +495,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>ksmith123travel123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r562350731-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -471,6 +516,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Jacqueline G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r561275455-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -489,6 +537,9 @@
     <t>I lost my husband last year so my daughter bought us tickets to beautiful Ca. to do something different for Christmas that would have no attached memories.We were charmed by this beautiful  hacienda like hotel.  We sat on the roof terrace and watched the sun come up on Christmas Eve morning while drinking the delicious coffee we made in our room. The terrace was complete with lemon trees with big lemons on them!  There was an avocado vine complete with avocados. Being from Indiana this was new to us!  It was just us on the roof and it was fantastic.  The hotel staff suggested things for us to do which included having breakfast at the Santa Monica pier while gazing at the ocean.  This is such a special hotel, warm and friendly and they gave two people a special Christmas when they didn't expect it at all.More</t>
   </si>
   <si>
+    <t>Cain S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r560817665-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -507,6 +558,9 @@
     <t>Had never been to LA before this trip. I loved PLR and the area in general. It's right past the western edge of Beverly Hills, very close to the UCLA campus.The area is very walkable (for anywhere, but especially for LA) and has tons of diverse dining options through all price ranges. Property itself is really cool and seems to mostly consist of an old open air Med style apartment building that's been converted for hotel use. Staff was very friendly, attentive, and helpful. ("How was dinner? Where'd you go?" "Are you going to need any ice tonight?"). Parking is $25 but very secure, convenient, and easy to negotiate. Big bathroom with great walk in shower. Bed was extremely comfortable, and even though my room fronted Lindbrook on the second floor it was pretty quiet. Highly recommend.More</t>
   </si>
   <si>
+    <t>CiaoFabiana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r555948954-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -525,6 +579,9 @@
     <t>Plaza La Reina offers the convenience of today’s lifestyle, with the refined elegance and vintage style reminiscent of those early days of Westwood. That’s what makes it the perfect destination for a romantic little getaway. Tucked away from the rest of the city, we felt so at home staying at the Plaza La Reina. Our beautiful one-bedroom private suite was very comfortable and even included a large private terrace.The view from our room was evocative of Italy, as our room overlooked the beautiful terracotta roofed buildings nearby. In the evening, the twinkling city lights of Los Angeles’ modern cityscape framed the scenery. It was like having our own private apartment in the city!Our room was filled with so many modern conveniences that you might not expect from a luxury hotel. We had a fully stocked kitchenette that even included a Bosch washer and dryer! So perfect for a weekend or for a longer extended stay! Walking out the front doors of the hotel, we had dozens of great restaurant options that were only a short walk away. Some of our favorites are Tanino Ristorante, Le Pain Quotidien, Skylights Gardens, and California Pizza Kitchen. There’s even an In ‘n Out Burger nearby, which is a necessity in any college town!More</t>
   </si>
   <si>
+    <t>Ashley C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r548216648-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -543,6 +600,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Izzy E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r547940134-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -564,6 +624,9 @@
     <t>My partner and I spent 3 amazing nights at Plaza La Reina in Westwood, LA. This place is incredible. The rooms are out of this world. 100% luxury. So much thought has gone into the design of this boutique hotel. We will definitely stay again next time we are in LA. It is in a great location, it’s easy to uber everywhere  and the staff are so helpful and friendly. We have only amazing things to say about this place and recommend it to everyone, especially any Aussies wanting to live like a local in a very trendy part of LA! Thanks so much to Plaza La Reina!! We will be back! More</t>
   </si>
   <si>
+    <t>oclinda2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r547541686-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -576,6 +639,9 @@
     <t>Plaza La Reina exceeded all of our expectations!  Every detail has been considered in choosing the materials for this beautiful building.   We especially loved the bathroom and the comfortable bed.  The suite is spacious and the full kitchen is an added bonus for longer stays.  We were also equally impressed with the staff.  Every employee from the receptionist to the maintenance staff greeted us and asked us how we were enjoying our stay.    Customer service worthy of the Ritz Carlton.  Outstanding!</t>
   </si>
   <si>
+    <t>melbournedale</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r541026817-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -592,6 +658,9 @@
   </si>
   <si>
     <t>We only stayed here as we wanted to visit the Getty museum and we found a little gem of a hotel. You would miss it as you drive along the street as it has no signs out front, no big foyer, just a pair of doors with the logo on it a small desk in the foyer and a nice smile to welcome you. The rooms are large, warm and inviting and are more like a serviced apartment. Washer and dryer included in our suit!! There is no restaurant however it is in easy walking of many nice places to eat. Great coffee (the best in LA I might add) can be had at the Ministry of Coffee next to Trader Joes only one block away. This will be our place to stay in LA from here on in as it is quiet, in a really nice location and neighbourhood.More</t>
+  </si>
+  <si>
+    <t>RockyMountaintravel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r537762687-Plaza_La_Reina-Los_Angeles_California.html</t>
@@ -618,6 +687,9 @@
 The service was wonderful, too.  Upon arrival we were greeted by Troy who was helpful with...We come to LA fairly frequently and make it a point to stay at different properties so we get a feel for different areas of the city.  I chose Plaza La Reina because of the excellent reviews, the roominess it offered, and the location in Westwood where we had never stayed.  We were extremely pleased with our choice and would definitely consider staying there again.The room was immaculate, beautifully furnished with high end, tasteful furniture, and much to my husband’s delight had a nice desk area.  I loved that the bedroom was in a separate room (though not with a door).  The bed was comfy and made with plush linens.  The bathroom was beautifully tiled and outfitted with high end products and thick towels.  We appreciated the Keurig coffee maker and complimentary coffee and teas, as well as the dish ware, refrigerator and dishwasher.  While we did not use them the unit had a nice Bosch washer/dryer set.  Amazingly, the room was quiet - no outside noises despite our location overlooking Lindbrook Avenue and no noises from our neighbors.  I’ve never had a quieter room while in LA.We took advantage of the beautiful large outdoor terrace on the top floor of the property.  There are multiple groupings of high quality outdoor furniture and heat lamps.  Lovely surroundings for a cocktail and snacks.The service was wonderful, too.  Upon arrival we were greeted by Troy who was helpful with check in and acted as a nice resource throughout our stay.  He was also fabulous at remembering our names.  The other front desk personnel were also very friendly and helpful and contributed to the welcoming atmosphere.No, this isn’t your typical hotel in that there isn’t a large lobby nor a large front desk staff.  However, if you are seeking a high end property at a reasonable price in a lovely neighborhood I’d strongly encourage you to check out this hotel.  And you can’t beat its closeness to UCLA, the Hammer Museum, or Wiltshire Blvd. with its proximity to Brentwood and Santa Monica and the 405.More</t>
   </si>
   <si>
+    <t>Karri L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r534715357-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -633,6 +705,9 @@
     <t xml:space="preserve">We were coming to LA to visit UCLA and this was a great choice. It is perfectly located just off of Westwood village walking distance to everything, Parking is convenient, room is spacious, clean, and well appointed, and the staff was very friendly. My only criticism is we couldn't get a room with 2 beds. The sofa does pull out to a bed, but even the best sofa beds aren't that wonderful. </t>
   </si>
   <si>
+    <t>geldolphMcLeanVA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r509135414-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -651,6 +726,9 @@
     <t>The Plaza La Reina is a new boutique hotel that is centrally located in Westwood, around the corner from the Hammer Museum. We stayed here, getting a one-bedroom suite, because we thought our 20-year-old son might join us and so could stay on the sofa bed. But when we arrived, we were surprised to see there is no door between the bedroom and the living area. If he wanted to use the bathroom in the middle of the night, he'd have to go right past our bed. I have not seen this sort of arrangement in any one-bedroom suite anywhere in the world, and it really was not what we expected. We checked and unfortunately every suite here had this sort of set-up. The manager was very understanding and so we checked out after one night and went to a different hotel nearby where we could get two bedrooms. This is a good space with a lot of charm, particularly for an extended stay, as long as you don't need or want privacy with any extra guests.More</t>
   </si>
   <si>
+    <t>Raa F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r508328195-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -664,6 +742,9 @@
   </si>
   <si>
     <t xml:space="preserve">I spent arround one month in the hotel July 2017..The staff are wonderful and polite... location is great with lot of restaurants walking distance ... rooms are big clean and beautiful day light... Underground parking is always available with easy access...As a boutique hotel the only missing is a safe in the room and a GYM...I advise  plaza la reina for me it was a great choice for a month vacation...Troy is so helpful and welcoming...Good luck </t>
+  </si>
+  <si>
+    <t>Lily76CK</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r508061091-Plaza_La_Reina-Los_Angeles_California.html</t>
@@ -686,6 +767,9 @@
 However, the experience in checking in really gave me a shock as they said Hotels.com cancelled my booking. I searched on my phone and let them see my confirmed booking online but they said they didn't get any payment from Hotels.com ( my room was prepaid). They could give me another room by holding a payment with my credit card as they would communicate with Hotels.com the next day. As I was traveling with kid, I really needed a place to stay, I had no choice. When I got in my room, I immediately called Hotels.com customer service to complain. Finally, Hotels.com contacted Plaza La Reina and solved the problem. I have no idea why Plaza La Reina didn't contact Hotels.com on the spot to resolve the problem but I was the one who needed to do it. I also have no idea why Hotels.com canceled my booking with Plaza La Reina. In addition to this, I had a very bad experience booking my car with Hotels.com's agent - Cartrawler. I didn't get the same class type when picking up my car at Thrifty. Thrifty said they never had that specific car with...The hotel is great in terms of room size, room facilities and location. The room is beautiful and quiet. They have Bosch washer and dryer, full set of cutlery and cooking utensils. The location is great as there are lots of restaurants and supermarkets within walking distance.However, the experience in checking in really gave me a shock as they said Hotels.com cancelled my booking. I searched on my phone and let them see my confirmed booking online but they said they didn't get any payment from Hotels.com ( my room was prepaid). They could give me another room by holding a payment with my credit card as they would communicate with Hotels.com the next day. As I was traveling with kid, I really needed a place to stay, I had no choice. When I got in my room, I immediately called Hotels.com customer service to complain. Finally, Hotels.com contacted Plaza La Reina and solved the problem. I have no idea why Plaza La Reina didn't contact Hotels.com on the spot to resolve the problem but I was the one who needed to do it. I also have no idea why Hotels.com canceled my booking with Plaza La Reina. In addition to this, I had a very bad experience booking my car with Hotels.com's agent - Cartrawler. I didn't get the same class type when picking up my car at Thrifty. Thrifty said they never had that specific car with them. So, beware of booking with Hotels.com and make sure your reconfirm your booking prior to travel to avoid disappointment. Furthermore, don't ever book your car thru Cartrawler to spoil your holiday.More</t>
   </si>
   <si>
+    <t>CaliforniaDaisy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r502645528-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -704,6 +788,9 @@
     <t>3 day stay in a one bedroom suite.New with nice furnishings and linens, very friendly service, location-close to the 405, Westwood with restaurants and shops, walking distance to UCLA, free parking.Rooms include a small refrigerator, dishwasher, microwave and 2 burner stove top.Washer and dryer.The one room suite we stayed in did not have a door separating the room from the living space, just FYI.I think they are just getting their staff on board, because the very helpful man that checked me in, also delivered sheets, blanket for the pull out sofa and when I checked in room was not ready at 3 PM-check in time.  Which makes me think they are not fully staffed at this time.I agree this is not a 5 star hotel, no pool/spa/restaurant/valet etc,. if thats what you are looking for look elsewhere, plenty in the area, but if you want a friendly, spacious room in a great location I would definitely recommend.More</t>
   </si>
   <si>
+    <t>le_pseudonyme</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r502548298-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -719,6 +806,9 @@
     <t>The space was clean and beautiful, no sign of dog (I mention this since it's a dog-friendly hotel).  The bathroom, the linens, the beddings were immaculate.  The bed and pillows were comfortable.  The toiletries were etro.  There was a washer and dryer (Bosch) which we used, a dishwasher (Fisher &amp; Paykel), various detergents -- everything you need, really. Tea kettle, coffee maker, pots and pans, plates, and silverware, even measuring cups!  Couch cushions were deflated looking but who cares! It was all so lovely.  The suite truly was home away from home.The location is excellent -- Westwood Village.  There are so many restaurants nearby, and two cute old timey theaters, all walking distance.  There is also a Target, a Ralph's and Whole Foods, also walking distance.  I could seriously live here.And it gets better: complimentary self parking, in/out privileges, in Los Angeles.More</t>
   </si>
   <si>
+    <t>Sal_Winchester</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r502354528-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -734,6 +824,9 @@
     <t>We loved this place. Perfectly located, it does not have a swimming pool or any fancy amenities but the rooms are lovely will all the facilities you may need. the staff are unbelievably helpful and that what makes this place. You can stand on the roof top overlooking the terracotta rooftops and imagine being in a tuscan village - its bizarre but very restful and discrete. Classy and perfectly executed - where else would you find Etro bathroom accessories. That is just the icing on the case. Well done folks - we thought you were fab! Laundry facilities in the room - what more do you need!!!!</t>
   </si>
   <si>
+    <t>Clarke S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r501004195-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -750,6 +843,9 @@
   </si>
   <si>
     <t>We stayed at Plaza La Reina for our son's new student orientation at UCLA and have already booked a room for family weekend in the fall.  It's a lovely facility with an attentive and helpful staff right in the middle of Westwood just a short walk from campus.The rooms are very nice, large, with hardwood floors, lots of windows (that actually open) a comfortable bed and multiple places to sit.  As an added bonus, the room has a small kitchen and washer/dryer.We have already made plans to return in a few months - I can't think of a nicer, closer place to stay for visiting UCLA (or anything else in the Westwood area).More</t>
+  </si>
+  <si>
+    <t>Heather T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r500013812-Plaza_La_Reina-Los_Angeles_California.html</t>
@@ -779,6 +875,9 @@
 That was the only downside.... The manager (or whoever the lovely man at the desk was) was extremely apologetic and he was the one who actually ended up helping us out with new shampoos etc.  I understand if they were understaffed, but people still need their room cleaned.  I hope they manage to find a way to overcome that problem - because it is indeed a big...We went to Plaza La Reina to work, in need of quiet and no distractions, and we found it here.  The noise was very low, even though it's in quite a busy area of Westwood.  The courtyard was pretty, with a little fountain and the rooftop was a nice addition.  Good views and plenty of seating/umbrellas.  Decor inside the lobby was beautiful.  Created a great, mature, stylist atmosphere.  The rooms themselves were absolutely gorgeous.  Plenty of room.  Fridge, washing machine, sink, coffee maker.  Plus great TV's - with on demand.  I hate to write this - but the reason I did not give it 5 stars is because the room cleaning was really bad.  Three out of our five of our nights, we had to call down several times to the front desk to ask them to send someone to service the room.  Those three days, they ended up coming at 8pm to clean, and when they did - they didn't leave us any more shampoo, soap, conditioner, teabags, clean sheets and robes.  That was the only downside.... The manager (or whoever the lovely man at the desk was) was extremely apologetic and he was the one who actually ended up helping us out with new shampoos etc.  I understand if they were understaffed, but people still need their room cleaned.  I hope they manage to find a way to overcome that problem - because it is indeed a big problem.They have free parking (yes, you heard me..free!), which is in a safe, underground car park, with plenty of spaces.  The staff were very nice and helpful.  Nothing negative to say at all.  They gave us recommendations on nice places to eat and cool places to go and visit.  Always had a smile on their face and always had time to help us.The location is brilliant.  Minutes away from the Hammer Museum, close to the Botanical Gardens, the Geffen Playhouse and the Regency Village Theatre.  4/5 stars!  (Just please work on the staff shortage, please)More</t>
   </si>
   <si>
+    <t>Lingyun S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r497863647-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -794,6 +893,9 @@
     <t>Overall a pleasant 4 night stay.  New property with great location.  Arrived late night after long flight and they put us in a wrong room when we checked in but quickly rectified within an hour.  Staff seems to be multitasking too much.  However can feel the team is trying their best and good solid effort to improve!</t>
   </si>
   <si>
+    <t>Olivia E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r491412581-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -809,6 +911,9 @@
     <t>Would highly recommend, stayed here while away for business when extending for the long weekend and thought it was incredibly comfortable. Good location away from the noise of Los Angeles. Staff were friendly and bilingual</t>
   </si>
   <si>
+    <t>Kameko A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r490309199-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -830,6 +935,9 @@
     <t>My boyfriend and I spent 2 nights at Plaza La Reina. We both needed to press pause for a little bit and thats exactly what we did! We stayed in a junior suite with a lovely little balcony and we spent 95% of our stay in the room. The room was homey and spacious. I loved the decor it didn't feel bland like most hotels room. At first we were a little nervous that  it was going to be noisy cause our balcony was street facing but it was so quiet(I need those windows in my apartment)!! The other 5% we walked to get food and drinks, such a convenient location and it was nice to not have to drive at all that weekend. Even though we didn't interact with the staff much they were very pleasant and let us keep to ourselves which I appreciated.If you're looking for a home away from home, in a great location, with the amenities and convenience of a hotel look no further!More</t>
   </si>
   <si>
+    <t>asma_you</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r487119200-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -848,6 +956,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Greg L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r483469183-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -863,6 +974,9 @@
     <t>What a great find in Westwood.   This new boutique hotel offers you a level  of comfort that will make a relaxing stay after a hectic day in LA.   The staff is awesome and when you add this to the decor, you truly have a great place! A gem that you will come to love in Westwood!</t>
   </si>
   <si>
+    <t>Sally A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r483071244-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -878,6 +992,9 @@
     <t>I never wrote a review before on trip advisor but it seemed worth it to write something about this hotel. It was one of the best hotel I've ever stayed, with such loving staff! Such a Beautiful hotel.</t>
   </si>
   <si>
+    <t>Rola A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r483062197-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -890,6 +1007,9 @@
     <t>This was the best hotel I've stayed at by far. The concierge (Troy) and Enrique (Room) had the best customer service! All the little things they did were truly touching to us. They made us feel like home and even took the time to help us plan our days! I was very happy with this and so were my 3 other friends.</t>
   </si>
   <si>
+    <t>amschwarz86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r471485884-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -908,6 +1028,9 @@
     <t>Finding this place was a real gem! It's super new and everything is modern and up-to-date. I love that they have a mini kitchen in each room with dishes, silverware, cookware and dishwasher. Some units even have a washer and dryer which is perfect if you are there for an extended stay! (Nothing better than flying home with clean clothes!) The staff is super friendly, helpful and accommodating. The only thing to note is that they don't have room service (YET!) so you do have to run out for your breakfast (coffee!) and meals (although they do have a Keurig in the room) and you are missing some amenities that are typical of a hotel like a gym (although there is one around the corner) and valet (but I believe this is in the works.) But again, they're just getting off their feet! I HIGHLY recommend.More</t>
   </si>
   <si>
+    <t>ChristinaKate</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r471385654-Plaza_La_Reina-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -918,6 +1041,9 @@
   </si>
   <si>
     <t>I stayed at Plaza la Reina during a work trip recently, and had a wonderful experience. The room was quite large and beautiful, with great kitchen amenities as well as a washer and dryer. The staff were extremely pleasant and helpful as well. I would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>Frieden451</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d10170507-r459124983-Plaza_La_Reina-Los_Angeles_California.html</t>
@@ -1440,43 +1566,47 @@
       <c r="A2" t="n">
         <v>66184</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1492,56 +1622,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66184</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1553,56 +1687,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66184</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1620,56 +1758,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66184</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1689,50 +1831,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66184</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1752,50 +1898,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66184</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1809,50 +1959,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66184</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1866,50 +2020,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66184</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1923,50 +2081,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66184</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1986,50 +2148,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66184</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2043,50 +2209,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66184</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2104,50 +2274,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66184</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2165,50 +2339,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66184</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2222,50 +2400,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66184</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2283,50 +2465,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66184</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2340,50 +2526,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66184</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2401,50 +2591,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66184</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2462,50 +2656,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66184</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2525,50 +2723,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66184</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2588,50 +2790,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66184</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2645,50 +2851,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66184</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -2708,50 +2918,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66184</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>199</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2769,50 +2983,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66184</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2826,41 +3044,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66184</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>213</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="J25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="K25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
@@ -2879,50 +3101,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66184</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>219</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2942,50 +3168,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66184</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="J27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -2999,50 +3229,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66184</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="J28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3062,50 +3296,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66184</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="J29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3125,50 +3363,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>66184</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="J30" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="K30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3188,50 +3430,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66184</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>252</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="J31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="K31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="L31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3249,50 +3495,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>66184</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>258</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="J32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3306,50 +3556,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66184</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>265</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="K33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3365,50 +3619,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66184</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>273</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="J34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="K34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3422,50 +3680,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>66184</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>279</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="O35" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3485,50 +3747,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66184</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>285</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3548,50 +3814,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>66184</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>293</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="J37" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="K37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="O37" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3605,50 +3875,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>66184</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>300</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="J38" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -3666,50 +3940,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>66184</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>306</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="J39" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="K39" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="O39" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -3723,50 +4001,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>66184</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>312</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="J40" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="O40" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -3780,50 +4062,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>66184</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>317</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="J41" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="O41" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -3841,50 +4127,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>66184</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>324</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="J42" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="K42" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="L42" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="O42" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -3904,50 +4194,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>66184</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>329</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="J43" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="K43" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="L43" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="O43" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -3965,7 +4259,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
